--- a/project_3_train+test.xlsx
+++ b/project_3_train+test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenysokolovsky/Desktop/Pipelines/Pipeline_v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\HSE-study\Временные ряды\Проект 3\StochProcs3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C49278-52CF-0447-A5DD-B55E966E016C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -185,23 +187,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -237,23 +222,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -429,24 +397,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="E480" sqref="E480"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>42744</v>
       </c>
@@ -454,7 +423,7 @@
         <v>0.62793812948415129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>42745</v>
       </c>
@@ -462,7 +431,7 @@
         <v>0.23804998582212261</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>42746</v>
       </c>
@@ -470,7 +439,7 @@
         <v>5.7762548989506467E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>42747</v>
       </c>
@@ -478,7 +447,7 @@
         <v>1.1195297035917231</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>42748</v>
       </c>
@@ -486,7 +455,7 @@
         <v>7.4450915622134003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>42749</v>
       </c>
@@ -494,7 +463,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>42750</v>
       </c>
@@ -502,7 +471,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>42751</v>
       </c>
@@ -510,7 +479,7 @@
         <v>0.25798483466478611</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>42752</v>
       </c>
@@ -518,7 +487,7 @@
         <v>-1.206301792292571E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>42753</v>
       </c>
@@ -526,7 +495,7 @@
         <v>-0.2176024229012756</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>42754</v>
       </c>
@@ -534,7 +503,7 @@
         <v>6.5672088049261237E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>42755</v>
       </c>
@@ -542,7 +511,7 @@
         <v>0.17355515691905141</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>42756</v>
       </c>
@@ -550,7 +519,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>42757</v>
       </c>
@@ -558,7 +527,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>42758</v>
       </c>
@@ -566,7 +535,7 @@
         <v>0.29918196481705711</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>42759</v>
       </c>
@@ -574,7 +543,7 @@
         <v>0.19720398777511061</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>42760</v>
       </c>
@@ -582,7 +551,7 @@
         <v>0.25453345844642672</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>42761</v>
       </c>
@@ -590,7 +559,7 @@
         <v>0.10693027407125499</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>42762</v>
       </c>
@@ -598,7 +567,7 @@
         <v>0.42357026993143793</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>42763</v>
       </c>
@@ -606,7 +575,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>42764</v>
       </c>
@@ -614,7 +583,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>42765</v>
       </c>
@@ -622,7 +591,7 @@
         <v>0.57940248729066202</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>42766</v>
       </c>
@@ -630,7 +599,7 @@
         <v>0.51649491731393904</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>42767</v>
       </c>
@@ -638,7 +607,7 @@
         <v>7.0935910600572069E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>42768</v>
       </c>
@@ -646,7 +615,7 @@
         <v>0.11263766324066921</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>42769</v>
       </c>
@@ -654,7 +623,7 @@
         <v>0.1203742583311059</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>42770</v>
       </c>
@@ -662,7 +631,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>42771</v>
       </c>
@@ -670,7 +639,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>42772</v>
       </c>
@@ -678,7 +647,7 @@
         <v>9.5091011365942019E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>42773</v>
       </c>
@@ -686,7 +655,7 @@
         <v>1.058155461197734E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>42774</v>
       </c>
@@ -694,7 +663,7 @@
         <v>0.2871383413434922</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>42775</v>
       </c>
@@ -702,7 +671,7 @@
         <v>0.87363326325072199</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>42776</v>
       </c>
@@ -710,7 +679,7 @@
         <v>0.35287657721986071</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>42777</v>
       </c>
@@ -718,7 +687,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>42778</v>
       </c>
@@ -726,7 +695,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>42779</v>
       </c>
@@ -734,7 +703,7 @@
         <v>0.28721320597718658</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>42780</v>
       </c>
@@ -742,7 +711,7 @@
         <v>0.11282048800989811</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>42781</v>
       </c>
@@ -750,7 +719,7 @@
         <v>0.25422286578077591</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>42782</v>
       </c>
@@ -758,7 +727,7 @@
         <v>0.32346115924607122</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>42783</v>
       </c>
@@ -766,7 +735,7 @@
         <v>0.14250335740111811</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>42784</v>
       </c>
@@ -774,7 +743,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42785</v>
       </c>
@@ -782,7 +751,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>42786</v>
       </c>
@@ -790,7 +759,7 @@
         <v>0.31215361520155133</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>42787</v>
       </c>
@@ -798,7 +767,7 @@
         <v>0.5558896784415096</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>42788</v>
       </c>
@@ -806,7 +775,7 @@
         <v>0.77541598722705418</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>42789</v>
       </c>
@@ -814,7 +783,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>42790</v>
       </c>
@@ -822,7 +791,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>42791</v>
       </c>
@@ -830,7 +799,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>42792</v>
       </c>
@@ -838,7 +807,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>42793</v>
       </c>
@@ -846,7 +815,7 @@
         <v>1.240299394247123</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>42794</v>
       </c>
@@ -854,7 +823,7 @@
         <v>0.872926279428067</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>42795</v>
       </c>
@@ -862,7 +831,7 @@
         <v>5.494932875621996E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>42796</v>
       </c>
@@ -870,7 +839,7 @@
         <v>0.18234835566941329</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>42797</v>
       </c>
@@ -878,7 +847,7 @@
         <v>0.1109609082127035</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>42798</v>
       </c>
@@ -886,7 +855,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>42799</v>
       </c>
@@ -894,7 +863,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>42800</v>
       </c>
@@ -902,7 +871,7 @@
         <v>0.13984008025701661</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>42801</v>
       </c>
@@ -910,7 +879,7 @@
         <v>5.0733603168767648E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>42802</v>
       </c>
@@ -918,7 +887,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>42803</v>
       </c>
@@ -926,7 +895,7 @@
         <v>0.663595759301432</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42804</v>
       </c>
@@ -934,7 +903,7 @@
         <v>0.32196772441722882</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42805</v>
       </c>
@@ -942,7 +911,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42806</v>
       </c>
@@ -950,7 +919,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42807</v>
       </c>
@@ -958,7 +927,7 @@
         <v>0.48572331427879839</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42808</v>
       </c>
@@ -966,7 +935,7 @@
         <v>0.83486022984674713</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42809</v>
       </c>
@@ -974,7 +943,7 @@
         <v>0.51224171133297292</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42810</v>
       </c>
@@ -982,7 +951,7 @@
         <v>0.17653891652236189</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42811</v>
       </c>
@@ -990,7 +959,7 @@
         <v>0.27021596273074638</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>42812</v>
       </c>
@@ -998,7 +967,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>42813</v>
       </c>
@@ -1006,7 +975,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>42814</v>
       </c>
@@ -1014,7 +983,7 @@
         <v>0.60570105538846908</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>42815</v>
       </c>
@@ -1022,7 +991,7 @@
         <v>0.38182173981227419</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>42816</v>
       </c>
@@ -1030,7 +999,7 @@
         <v>0.29450944274143409</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>42817</v>
       </c>
@@ -1038,7 +1007,7 @@
         <v>0.30084001215685152</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>42818</v>
       </c>
@@ -1046,7 +1015,7 @@
         <v>0.27997094116658289</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>42819</v>
       </c>
@@ -1054,7 +1023,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>42820</v>
       </c>
@@ -1062,7 +1031,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>42821</v>
       </c>
@@ -1070,7 +1039,7 @@
         <v>2.8091978277888559</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>42822</v>
       </c>
@@ -1078,7 +1047,7 @@
         <v>0.63725406407535956</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>42823</v>
       </c>
@@ -1086,7 +1055,7 @@
         <v>0.76255260030452443</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>42824</v>
       </c>
@@ -1094,7 +1063,7 @@
         <v>0.77577339359543651</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>42825</v>
       </c>
@@ -1102,7 +1071,7 @@
         <v>0.82954165959431692</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>42826</v>
       </c>
@@ -1110,7 +1079,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>42827</v>
       </c>
@@ -1118,7 +1087,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>42828</v>
       </c>
@@ -1126,7 +1095,7 @@
         <v>0.44620026258839512</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>42829</v>
       </c>
@@ -1134,7 +1103,7 @@
         <v>0.36238132706108273</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>42830</v>
       </c>
@@ -1142,7 +1111,7 @@
         <v>0.22308068029835729</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>42831</v>
       </c>
@@ -1150,7 +1119,7 @@
         <v>0.35626018771606882</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>42832</v>
       </c>
@@ -1158,7 +1127,7 @@
         <v>0.1507779850906168</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>42833</v>
       </c>
@@ -1166,7 +1135,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>42834</v>
       </c>
@@ -1174,7 +1143,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>42835</v>
       </c>
@@ -1182,7 +1151,7 @@
         <v>0.50914579563573781</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>42836</v>
       </c>
@@ -1190,7 +1159,7 @@
         <v>0.24410621385523551</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>42837</v>
       </c>
@@ -1198,7 +1167,7 @@
         <v>0.1182487149212863</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>42838</v>
       </c>
@@ -1206,7 +1175,7 @@
         <v>0.26198460618904601</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>42839</v>
       </c>
@@ -1214,7 +1183,7 @@
         <v>0.29166643361164929</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>42840</v>
       </c>
@@ -1222,7 +1191,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>42841</v>
       </c>
@@ -1230,7 +1199,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>42842</v>
       </c>
@@ -1238,7 +1207,7 @@
         <v>0.18736140985231109</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>42843</v>
       </c>
@@ -1246,7 +1215,7 @@
         <v>-2.826163732619881E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>42844</v>
       </c>
@@ -1254,7 +1223,7 @@
         <v>0.19849809657461531</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>42845</v>
       </c>
@@ -1262,7 +1231,7 @@
         <v>0.38183906423626229</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>42846</v>
       </c>
@@ -1270,7 +1239,7 @@
         <v>9.666972041322908E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>42847</v>
       </c>
@@ -1278,7 +1247,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>42848</v>
       </c>
@@ -1286,7 +1255,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>42849</v>
       </c>
@@ -1294,7 +1263,7 @@
         <v>0.31208485875151321</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>42850</v>
       </c>
@@ -1302,7 +1271,7 @@
         <v>0.46187390799458028</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>42851</v>
       </c>
@@ -1310,7 +1279,7 @@
         <v>0.57489697045412214</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>42852</v>
       </c>
@@ -1318,7 +1287,7 @@
         <v>0.86013258093668588</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>42853</v>
       </c>
@@ -1326,7 +1295,7 @@
         <v>0.86167884790986304</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>42854</v>
       </c>
@@ -1334,7 +1303,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>42855</v>
       </c>
@@ -1342,7 +1311,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>42856</v>
       </c>
@@ -1350,7 +1319,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>42857</v>
       </c>
@@ -1358,7 +1327,7 @@
         <v>0.47245657225817261</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>42858</v>
       </c>
@@ -1366,7 +1335,7 @@
         <v>5.2436313271130262E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>42859</v>
       </c>
@@ -1374,7 +1343,7 @@
         <v>0.30478936984216609</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>42860</v>
       </c>
@@ -1382,7 +1351,7 @@
         <v>0.35827784436939158</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>42861</v>
       </c>
@@ -1390,7 +1359,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>42862</v>
       </c>
@@ -1398,7 +1367,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>42863</v>
       </c>
@@ -1406,7 +1375,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>42864</v>
       </c>
@@ -1414,7 +1383,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>42865</v>
       </c>
@@ -1422,7 +1391,7 @@
         <v>0.40762736081739448</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>42866</v>
       </c>
@@ -1430,7 +1399,7 @@
         <v>0.71445823000074304</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>42867</v>
       </c>
@@ -1438,7 +1407,7 @@
         <v>0.3963060669149151</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>42868</v>
       </c>
@@ -1446,7 +1415,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>42869</v>
       </c>
@@ -1454,7 +1423,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>42870</v>
       </c>
@@ -1462,7 +1431,7 @@
         <v>0.52502728141559596</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>42871</v>
       </c>
@@ -1470,7 +1439,7 @@
         <v>0.41119146841201631</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>42872</v>
       </c>
@@ -1478,7 +1447,7 @@
         <v>0.27986453420991902</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>42873</v>
       </c>
@@ -1486,7 +1455,7 @@
         <v>0.58378396501658303</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>42874</v>
       </c>
@@ -1494,7 +1463,7 @@
         <v>0.21567315995996661</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>42875</v>
       </c>
@@ -1502,7 +1471,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>42876</v>
       </c>
@@ -1510,7 +1479,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>42877</v>
       </c>
@@ -1518,7 +1487,7 @@
         <v>0.6068125797407149</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>42878</v>
       </c>
@@ -1526,7 +1495,7 @@
         <v>0.29539784711486572</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>42879</v>
       </c>
@@ -1534,7 +1503,7 @@
         <v>0.30617004204006748</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>42880</v>
       </c>
@@ -1542,7 +1511,7 @@
         <v>0.72008758306596832</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>42881</v>
       </c>
@@ -1550,7 +1519,7 @@
         <v>1.311120676142151</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>42882</v>
       </c>
@@ -1558,7 +1527,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>42883</v>
       </c>
@@ -1566,7 +1535,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>42884</v>
       </c>
@@ -1574,7 +1543,7 @@
         <v>0.60695688917290558</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>42885</v>
       </c>
@@ -1582,7 +1551,7 @@
         <v>0.35601197262196621</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>42886</v>
       </c>
@@ -1590,7 +1559,7 @@
         <v>0.76249842709759397</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>42887</v>
       </c>
@@ -1598,7 +1567,7 @@
         <v>0.1793964092832831</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>42888</v>
       </c>
@@ -1606,7 +1575,7 @@
         <v>6.4264380302817142E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>42889</v>
       </c>
@@ -1614,7 +1583,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>42890</v>
       </c>
@@ -1622,7 +1591,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>42891</v>
       </c>
@@ -1630,7 +1599,7 @@
         <v>0.44210753134667219</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>42892</v>
       </c>
@@ -1638,7 +1607,7 @@
         <v>0.72999609678684241</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>42893</v>
       </c>
@@ -1646,7 +1615,7 @@
         <v>4.7598450686673011E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>42894</v>
       </c>
@@ -1654,7 +1623,7 @@
         <v>0.26108625054285373</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>42895</v>
       </c>
@@ -1662,7 +1631,7 @@
         <v>0.4060225835494965</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>42896</v>
       </c>
@@ -1670,7 +1639,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>42897</v>
       </c>
@@ -1678,7 +1647,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>42898</v>
       </c>
@@ -1686,7 +1655,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>42899</v>
       </c>
@@ -1694,7 +1663,7 @@
         <v>0.96864635950921696</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>42900</v>
       </c>
@@ -1702,7 +1671,7 @@
         <v>0.78814136487108344</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>42901</v>
       </c>
@@ -1710,7 +1679,7 @@
         <v>0.90505153102291613</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>42902</v>
       </c>
@@ -1718,7 +1687,7 @@
         <v>0.25462314823736149</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>42903</v>
       </c>
@@ -1726,7 +1695,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>42904</v>
       </c>
@@ -1734,7 +1703,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>42905</v>
       </c>
@@ -1742,7 +1711,7 @@
         <v>0.38234481581932023</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>42906</v>
       </c>
@@ -1750,7 +1719,7 @@
         <v>0.39641567504702641</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>42907</v>
       </c>
@@ -1758,7 +1727,7 @@
         <v>9.6135053651530938E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>42908</v>
       </c>
@@ -1766,7 +1735,7 @@
         <v>0.24245138859488469</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>42909</v>
       </c>
@@ -1774,7 +1743,7 @@
         <v>0.50208239367569574</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>42910</v>
       </c>
@@ -1782,7 +1751,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>42911</v>
       </c>
@@ -1790,7 +1759,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>42912</v>
       </c>
@@ -1798,7 +1767,7 @@
         <v>0.59282225298540148</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>42913</v>
       </c>
@@ -1806,7 +1775,7 @@
         <v>0.82499508820693279</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>42914</v>
       </c>
@@ -1814,7 +1783,7 @@
         <v>1.141382133757719</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>42915</v>
       </c>
@@ -1822,7 +1791,7 @@
         <v>0.75842844832476031</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>42916</v>
       </c>
@@ -1830,7 +1799,7 @@
         <v>1.0177016903764571</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>42917</v>
       </c>
@@ -1838,7 +1807,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>42918</v>
       </c>
@@ -1846,7 +1815,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>42919</v>
       </c>
@@ -1854,7 +1823,7 @@
         <v>0.49193892330484362</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>42920</v>
       </c>
@@ -1862,7 +1831,7 @@
         <v>0.79425006129790543</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>42921</v>
       </c>
@@ -1870,7 +1839,7 @@
         <v>0.24789791547534831</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>42922</v>
       </c>
@@ -1878,7 +1847,7 @@
         <v>0.34112727531829828</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>42923</v>
       </c>
@@ -1886,7 +1855,7 @@
         <v>0.18386697331268101</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>42924</v>
       </c>
@@ -1894,7 +1863,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>42925</v>
       </c>
@@ -1902,7 +1871,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>42926</v>
       </c>
@@ -1910,7 +1879,7 @@
         <v>0.80781721762376757</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>42927</v>
       </c>
@@ -1918,7 +1887,7 @@
         <v>0.52833124045582525</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>42928</v>
       </c>
@@ -1926,7 +1895,7 @@
         <v>0.27320009384344268</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>42929</v>
       </c>
@@ -1934,7 +1903,7 @@
         <v>0.50958944680631046</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>42930</v>
       </c>
@@ -1942,7 +1911,7 @@
         <v>0.1960809997096897</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>42931</v>
       </c>
@@ -1950,7 +1919,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>42932</v>
       </c>
@@ -1958,7 +1927,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>42933</v>
       </c>
@@ -1966,7 +1935,7 @@
         <v>0.50065151792668983</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>42934</v>
       </c>
@@ -1974,7 +1943,7 @@
         <v>0.1238846061506776</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>42935</v>
       </c>
@@ -1982,7 +1951,7 @@
         <v>0.43946947385466251</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>42936</v>
       </c>
@@ -1990,7 +1959,7 @@
         <v>1.7310182763888029</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>42937</v>
       </c>
@@ -1998,7 +1967,7 @@
         <v>0.58874494029537605</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>42938</v>
       </c>
@@ -2006,7 +1975,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>42939</v>
       </c>
@@ -2014,7 +1983,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>42940</v>
       </c>
@@ -2022,7 +1991,7 @@
         <v>0.71144956923487968</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>42941</v>
       </c>
@@ -2030,7 +1999,7 @@
         <v>0.75255762448018815</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>42942</v>
       </c>
@@ -2038,7 +2007,7 @@
         <v>9.6742295682150037E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>42943</v>
       </c>
@@ -2046,7 +2015,7 @@
         <v>0.62083617460197249</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>42944</v>
       </c>
@@ -2054,7 +2023,7 @@
         <v>0.28183358352528443</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>42945</v>
       </c>
@@ -2062,7 +2031,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>42946</v>
       </c>
@@ -2070,7 +2039,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>42947</v>
       </c>
@@ -2078,7 +2047,7 @@
         <v>0.93520578995588277</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>42948</v>
       </c>
@@ -2086,7 +2055,7 @@
         <v>0.27437967371537703</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>42949</v>
       </c>
@@ -2094,7 +2063,7 @@
         <v>0.60007843319665777</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>42950</v>
       </c>
@@ -2102,7 +2071,7 @@
         <v>0.48758385040578323</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>42951</v>
       </c>
@@ -2110,7 +2079,7 @@
         <v>0.4045744425826342</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>42952</v>
       </c>
@@ -2118,7 +2087,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>42953</v>
       </c>
@@ -2126,7 +2095,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>42954</v>
       </c>
@@ -2134,7 +2103,7 @@
         <v>0.73567934096344501</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>42955</v>
       </c>
@@ -2142,7 +2111,7 @@
         <v>0.33515863990782152</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>42956</v>
       </c>
@@ -2150,7 +2119,7 @@
         <v>0.21677074952670489</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>42957</v>
       </c>
@@ -2158,7 +2127,7 @@
         <v>0.41332296699059229</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>42958</v>
       </c>
@@ -2166,7 +2135,7 @@
         <v>0.43194634527221498</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>42959</v>
       </c>
@@ -2174,7 +2143,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>42960</v>
       </c>
@@ -2182,7 +2151,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>42961</v>
       </c>
@@ -2190,7 +2159,7 @@
         <v>0.52098139746915717</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>42962</v>
       </c>
@@ -2198,7 +2167,7 @@
         <v>0.55167006078181047</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>42963</v>
       </c>
@@ -2206,7 +2175,7 @@
         <v>0.15933976929613819</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>42964</v>
       </c>
@@ -2214,7 +2183,7 @@
         <v>0.32001883314928692</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>42965</v>
       </c>
@@ -2222,7 +2191,7 @@
         <v>0.2105775521790241</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>42966</v>
       </c>
@@ -2230,7 +2199,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>42967</v>
       </c>
@@ -2238,7 +2207,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>42968</v>
       </c>
@@ -2246,7 +2215,7 @@
         <v>0.54748640650115932</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>42969</v>
       </c>
@@ -2254,7 +2223,7 @@
         <v>0.1497505542043171</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>42970</v>
       </c>
@@ -2262,7 +2231,7 @@
         <v>0.1548067990569045</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>42971</v>
       </c>
@@ -2270,7 +2239,7 @@
         <v>0.41468940988497022</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>42972</v>
       </c>
@@ -2278,7 +2247,7 @@
         <v>0.23794262841246891</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>42973</v>
       </c>
@@ -2286,7 +2255,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>42974</v>
       </c>
@@ -2294,7 +2263,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>42975</v>
       </c>
@@ -2302,7 +2271,7 @@
         <v>0.66428038285180457</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>42976</v>
       </c>
@@ -2310,7 +2279,7 @@
         <v>0.185162486036063</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>42977</v>
       </c>
@@ -2318,7 +2287,7 @@
         <v>0.32854857770813339</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>42978</v>
       </c>
@@ -2326,7 +2295,7 @@
         <v>0.6905186432286009</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>42979</v>
       </c>
@@ -2334,7 +2303,7 @@
         <v>5.6528572247218911E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>42980</v>
       </c>
@@ -2342,7 +2311,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>42981</v>
       </c>
@@ -2350,7 +2319,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>42982</v>
       </c>
@@ -2358,7 +2327,7 @@
         <v>0.1059138404416255</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>42983</v>
       </c>
@@ -2366,7 +2335,7 @@
         <v>0.62430636417237506</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>42984</v>
       </c>
@@ -2374,7 +2343,7 @@
         <v>0.2454109872621546</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>42985</v>
       </c>
@@ -2382,7 +2351,7 @@
         <v>0.5923080571754924</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>42986</v>
       </c>
@@ -2390,7 +2359,7 @@
         <v>0.42738559414251431</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>42987</v>
       </c>
@@ -2398,7 +2367,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>42988</v>
       </c>
@@ -2406,7 +2375,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>42989</v>
       </c>
@@ -2414,7 +2383,7 @@
         <v>0.87474839047638653</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>42990</v>
       </c>
@@ -2422,7 +2391,7 @@
         <v>0.33349327159956049</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>42991</v>
       </c>
@@ -2430,7 +2399,7 @@
         <v>0.21724828515758859</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>42992</v>
       </c>
@@ -2438,7 +2407,7 @@
         <v>0.65124317903969797</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>42993</v>
       </c>
@@ -2446,7 +2415,7 @@
         <v>0.49202488682467149</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>42994</v>
       </c>
@@ -2454,7 +2423,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>42995</v>
       </c>
@@ -2462,7 +2431,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>42996</v>
       </c>
@@ -2470,7 +2439,7 @@
         <v>0.40465429963904492</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>42997</v>
       </c>
@@ -2478,7 +2447,7 @@
         <v>0.45183958894005372</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>42998</v>
       </c>
@@ -2486,7 +2455,7 @@
         <v>0.39268166602298959</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>42999</v>
       </c>
@@ -2494,7 +2463,7 @@
         <v>1.0710703598031719</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>43000</v>
       </c>
@@ -2502,7 +2471,7 @@
         <v>0.54206077750466641</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>43001</v>
       </c>
@@ -2510,7 +2479,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>43002</v>
       </c>
@@ -2518,7 +2487,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>43003</v>
       </c>
@@ -2526,7 +2495,7 @@
         <v>1.3593231282409479</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>43004</v>
       </c>
@@ -2534,7 +2503,7 @@
         <v>0.59234188072606353</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>43005</v>
       </c>
@@ -2542,7 +2511,7 @@
         <v>0.47122573775626481</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>43006</v>
       </c>
@@ -2550,7 +2519,7 @@
         <v>1.5691963666710069</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>43007</v>
       </c>
@@ -2558,7 +2527,7 @@
         <v>1.203104320974409</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>43008</v>
       </c>
@@ -2566,7 +2535,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>43009</v>
       </c>
@@ -2574,7 +2543,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>43010</v>
       </c>
@@ -2582,7 +2551,7 @@
         <v>0.43148928813690879</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>43011</v>
       </c>
@@ -2590,7 +2559,7 @@
         <v>0.22273987085710831</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>43012</v>
       </c>
@@ -2598,7 +2567,7 @@
         <v>0.57652170628112775</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>43013</v>
       </c>
@@ -2606,7 +2575,7 @@
         <v>0.80024413596004951</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>43014</v>
       </c>
@@ -2614,7 +2583,7 @@
         <v>0.19298917660431991</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>43015</v>
       </c>
@@ -2622,7 +2591,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>43016</v>
       </c>
@@ -2630,7 +2599,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>43017</v>
       </c>
@@ -2638,7 +2607,7 @@
         <v>0.47993148342543351</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>43018</v>
       </c>
@@ -2646,7 +2615,7 @@
         <v>0.94124543238478053</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>43019</v>
       </c>
@@ -2654,7 +2623,7 @@
         <v>0.38077533239453609</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>43020</v>
       </c>
@@ -2662,7 +2631,7 @@
         <v>0.86021206617403412</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>43021</v>
       </c>
@@ -2670,7 +2639,7 @@
         <v>0.53033553939828493</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>43022</v>
       </c>
@@ -2678,7 +2647,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>43023</v>
       </c>
@@ -2686,7 +2655,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>43024</v>
       </c>
@@ -2694,7 +2663,7 @@
         <v>0.83576211892328323</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>43025</v>
       </c>
@@ -2702,7 +2671,7 @@
         <v>0.47590842173944248</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>43026</v>
       </c>
@@ -2710,7 +2679,7 @@
         <v>0.29914443585598111</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>43027</v>
       </c>
@@ -2718,7 +2687,7 @@
         <v>0.74153897550924508</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>43028</v>
       </c>
@@ -2726,7 +2695,7 @@
         <v>0.47898525326229829</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>43029</v>
       </c>
@@ -2734,7 +2703,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>43030</v>
       </c>
@@ -2742,7 +2711,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>43031</v>
       </c>
@@ -2750,7 +2719,7 @@
         <v>0.8306069242010502</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>43032</v>
       </c>
@@ -2758,7 +2727,7 @@
         <v>0.57459437306572769</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>43033</v>
       </c>
@@ -2766,7 +2735,7 @@
         <v>1.2214359389250811</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>43034</v>
       </c>
@@ -2774,7 +2743,7 @@
         <v>0.51529040209621801</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>43035</v>
       </c>
@@ -2782,7 +2751,7 @@
         <v>0.6873277088032238</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>43036</v>
       </c>
@@ -2790,7 +2759,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>43037</v>
       </c>
@@ -2798,7 +2767,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>43038</v>
       </c>
@@ -2806,7 +2775,7 @@
         <v>0.88439824393971722</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>43039</v>
       </c>
@@ -2814,7 +2783,7 @@
         <v>1.6402653405653389</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>43040</v>
       </c>
@@ -2822,7 +2791,7 @@
         <v>0.39718569139403009</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>43041</v>
       </c>
@@ -2830,7 +2799,7 @@
         <v>0.81235511367695679</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>43042</v>
       </c>
@@ -2838,7 +2807,7 @@
         <v>0.38568353323797022</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>43043</v>
       </c>
@@ -2846,7 +2815,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>43044</v>
       </c>
@@ -2854,7 +2823,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>43045</v>
       </c>
@@ -2862,7 +2831,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>43046</v>
       </c>
@@ -2870,7 +2839,7 @@
         <v>0.80618148561956637</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>43047</v>
       </c>
@@ -2878,7 +2847,7 @@
         <v>0.43221733017160208</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>43048</v>
       </c>
@@ -2886,7 +2855,7 @@
         <v>0.5840295128255456</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>43049</v>
       </c>
@@ -2894,7 +2863,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>43050</v>
       </c>
@@ -2902,7 +2871,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>43051</v>
       </c>
@@ -2910,7 +2879,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>43052</v>
       </c>
@@ -2918,7 +2887,7 @@
         <v>0.68552875871497976</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>43053</v>
       </c>
@@ -2926,7 +2895,7 @@
         <v>0.75995278062728788</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>43054</v>
       </c>
@@ -2934,7 +2903,7 @@
         <v>0.6306568775173137</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>43055</v>
       </c>
@@ -2942,7 +2911,7 @@
         <v>0.37731810877232103</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>43056</v>
       </c>
@@ -2950,7 +2919,7 @@
         <v>0.41798963467702899</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>43057</v>
       </c>
@@ -2958,7 +2927,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>43058</v>
       </c>
@@ -2966,7 +2935,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>43059</v>
       </c>
@@ -2974,7 +2943,7 @@
         <v>0.59156964833111492</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>43060</v>
       </c>
@@ -2982,7 +2951,7 @@
         <v>0.39676334833892579</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>43061</v>
       </c>
@@ -2990,7 +2959,7 @@
         <v>0.30120880486338453</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>43062</v>
       </c>
@@ -2998,7 +2967,7 @@
         <v>0.48893509663754908</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>43063</v>
       </c>
@@ -3006,7 +2975,7 @@
         <v>0.50790106312596583</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>43064</v>
       </c>
@@ -3014,7 +2983,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>43065</v>
       </c>
@@ -3022,7 +2991,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>43066</v>
       </c>
@@ -3030,7 +2999,7 @@
         <v>0.65706246277331903</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>43067</v>
       </c>
@@ -3038,7 +3007,7 @@
         <v>0.7442627782932637</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>43068</v>
       </c>
@@ -3046,7 +3015,7 @@
         <v>1.0378909712709079</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>43069</v>
       </c>
@@ -3054,7 +3023,7 @@
         <v>1.1722128752641729</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>43070</v>
       </c>
@@ -3062,7 +3031,7 @@
         <v>0.42776744351744789</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>43071</v>
       </c>
@@ -3070,7 +3039,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>43072</v>
       </c>
@@ -3078,7 +3047,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>43073</v>
       </c>
@@ -3086,7 +3055,7 @@
         <v>0.89835568523080378</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>43074</v>
       </c>
@@ -3094,7 +3063,7 @@
         <v>0.62463512505978147</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>43075</v>
       </c>
@@ -3102,7 +3071,7 @@
         <v>0.71061484645669437</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>43076</v>
       </c>
@@ -3110,7 +3079,7 @@
         <v>0.66165578609691988</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>43077</v>
       </c>
@@ -3118,7 +3087,7 @@
         <v>0.76022074719762722</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>43078</v>
       </c>
@@ -3126,7 +3095,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>43079</v>
       </c>
@@ -3134,7 +3103,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>43080</v>
       </c>
@@ -3142,7 +3111,7 @@
         <v>0.90870709118338044</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>43081</v>
       </c>
@@ -3150,7 +3119,7 @@
         <v>0.90142691746608872</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>43082</v>
       </c>
@@ -3158,7 +3127,7 @@
         <v>0.42785461851379442</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>43083</v>
       </c>
@@ -3166,7 +3135,7 @@
         <v>0.82450988580639983</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>43084</v>
       </c>
@@ -3174,7 +3143,7 @@
         <v>2.075077107942259</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>43085</v>
       </c>
@@ -3182,7 +3151,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>43086</v>
       </c>
@@ -3190,7 +3159,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>43087</v>
       </c>
@@ -3198,7 +3167,7 @@
         <v>1.068075866269419</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>43088</v>
       </c>
@@ -3206,7 +3175,7 @@
         <v>1.411730445111945</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>43089</v>
       </c>
@@ -3214,7 +3183,7 @@
         <v>2.0480509938677991</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>43090</v>
       </c>
@@ -3222,7 +3191,7 @@
         <v>1.576127979601418</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>43091</v>
       </c>
@@ -3230,7 +3199,7 @@
         <v>1.0506339377624061</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>43092</v>
       </c>
@@ -3238,7 +3207,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>43093</v>
       </c>
@@ -3246,7 +3215,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>43094</v>
       </c>
@@ -3254,7 +3223,7 @@
         <v>2.7901131016765008</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>43095</v>
       </c>
@@ -3262,7 +3231,7 @@
         <v>2.137711716216439</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>43096</v>
       </c>
@@ -3270,7 +3239,7 @@
         <v>2.625103795227282</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>43097</v>
       </c>
@@ -3278,7 +3247,7 @@
         <v>3.4307737994122891</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>43098</v>
       </c>
@@ -3286,7 +3255,7 @@
         <v>1.6047013823750851</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>43099</v>
       </c>
@@ -3294,7 +3263,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>43100</v>
       </c>
@@ -3302,7 +3271,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>43101</v>
       </c>
@@ -3310,7 +3279,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>43102</v>
       </c>
@@ -3318,7 +3287,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>43103</v>
       </c>
@@ -3326,7 +3295,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>43104</v>
       </c>
@@ -3334,7 +3303,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>43105</v>
       </c>
@@ -3342,7 +3311,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>43106</v>
       </c>
@@ -3350,7 +3319,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>43107</v>
       </c>
@@ -3358,7 +3327,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>43108</v>
       </c>
@@ -3366,7 +3335,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>43109</v>
       </c>
@@ -3374,7 +3343,7 @@
         <v>1.0722101517149629</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>43110</v>
       </c>
@@ -3382,7 +3351,7 @@
         <v>0.65238954597951182</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>43111</v>
       </c>
@@ -3390,7 +3359,7 @@
         <v>0.98526209143308741</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>43112</v>
       </c>
@@ -3398,7 +3367,7 @@
         <v>1.1648529624573321</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>43113</v>
       </c>
@@ -3406,7 +3375,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>43114</v>
       </c>
@@ -3414,7 +3383,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>43115</v>
       </c>
@@ -3422,7 +3391,7 @@
         <v>0.65689232165772815</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>43116</v>
       </c>
@@ -3430,7 +3399,7 @@
         <v>0.1696492809780972</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>43117</v>
       </c>
@@ -3438,7 +3407,7 @@
         <v>0.21752241832975891</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>43118</v>
       </c>
@@ -3446,7 +3415,7 @@
         <v>8.2342322601025628E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>43119</v>
       </c>
@@ -3454,7 +3423,7 @@
         <v>0.47380369494045538</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>43120</v>
       </c>
@@ -3462,7 +3431,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>43121</v>
       </c>
@@ -3470,7 +3439,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>43122</v>
       </c>
@@ -3478,7 +3447,7 @@
         <v>0.7233417971312609</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>43123</v>
       </c>
@@ -3486,7 +3455,7 @@
         <v>0.37974696024693311</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>43124</v>
       </c>
@@ -3494,7 +3463,7 @@
         <v>0.2955293877632662</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>43125</v>
       </c>
@@ -3502,7 +3471,7 @@
         <v>1.357131244602847</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>43126</v>
       </c>
@@ -3510,7 +3479,7 @@
         <v>0.44745438163578483</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>43127</v>
       </c>
@@ -3518,7 +3487,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>43128</v>
       </c>
@@ -3526,7 +3495,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>43129</v>
       </c>
@@ -3534,7 +3503,7 @@
         <v>0.62656062300152227</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>43130</v>
       </c>
@@ -3542,7 +3511,7 @@
         <v>0.58601504931413451</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>43131</v>
       </c>
@@ -3550,7 +3519,7 @@
         <v>0.82232379292621494</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>43132</v>
       </c>
@@ -3558,7 +3527,7 @@
         <v>0.3218703609714807</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>43133</v>
       </c>
@@ -3566,7 +3535,7 @@
         <v>0.30428599993079708</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>43134</v>
       </c>
@@ -3574,7 +3543,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>43135</v>
       </c>
@@ -3582,7 +3551,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>43136</v>
       </c>
@@ -3590,7 +3559,7 @@
         <v>0.29678143495218412</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>43137</v>
       </c>
@@ -3598,7 +3567,7 @@
         <v>0.66798839496630813</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>43138</v>
       </c>
@@ -3606,7 +3575,7 @@
         <v>0.46648190601994849</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>43139</v>
       </c>
@@ -3614,7 +3583,7 @@
         <v>0.49132513121844179</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>43140</v>
       </c>
@@ -3622,7 +3591,7 @@
         <v>1.230775505101473</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>43141</v>
       </c>
@@ -3630,7 +3599,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>43142</v>
       </c>
@@ -3638,7 +3607,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>43143</v>
       </c>
@@ -3646,7 +3615,7 @@
         <v>0.74686167272850801</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>43144</v>
       </c>
@@ -3654,7 +3623,7 @@
         <v>0.95391641980390596</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>43145</v>
       </c>
@@ -3662,7 +3631,7 @@
         <v>0.30642610167284662</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>43146</v>
       </c>
@@ -3670,7 +3639,7 @@
         <v>0.64108671388700744</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>43147</v>
       </c>
@@ -3678,7 +3647,7 @@
         <v>0.4609788780480239</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>43148</v>
       </c>
@@ -3686,7 +3655,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>43149</v>
       </c>
@@ -3694,7 +3663,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>43150</v>
       </c>
@@ -3702,7 +3671,7 @@
         <v>0.40504748603751778</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>43151</v>
       </c>
@@ -3710,7 +3679,7 @@
         <v>0.62945660724705033</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>43152</v>
       </c>
@@ -3718,7 +3687,7 @@
         <v>0.59324534804011508</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>43153</v>
       </c>
@@ -3726,7 +3695,7 @@
         <v>0.7102344489356851</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>43154</v>
       </c>
@@ -3734,7 +3703,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>43155</v>
       </c>
@@ -3742,7 +3711,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>43156</v>
       </c>
@@ -3750,7 +3719,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>43157</v>
       </c>
@@ -3758,7 +3727,7 @@
         <v>1.456651145119173</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>43158</v>
       </c>
@@ -3766,7 +3735,7 @@
         <v>0.6602893098672894</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>43159</v>
       </c>
@@ -3774,7 +3743,7 @@
         <v>0.73214631420962561</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>43160</v>
       </c>
@@ -3782,7 +3751,7 @@
         <v>0.41697599458996443</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>43161</v>
       </c>
@@ -3790,7 +3759,7 @@
         <v>0.3212773205834949</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>43162</v>
       </c>
@@ -3798,7 +3767,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>43163</v>
       </c>
@@ -3806,7 +3775,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>43164</v>
       </c>
@@ -3814,7 +3783,7 @@
         <v>0.94448642697159768</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>43165</v>
       </c>
@@ -3822,7 +3791,7 @@
         <v>0.78989617971134407</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>43166</v>
       </c>
@@ -3830,7 +3799,7 @@
         <v>1.104420658938428</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>43167</v>
       </c>
@@ -3838,7 +3807,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>43168</v>
       </c>
@@ -3846,7 +3815,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>43169</v>
       </c>
@@ -3854,7 +3823,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>43170</v>
       </c>
@@ -3862,7 +3831,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>43171</v>
       </c>
@@ -3870,7 +3839,7 @@
         <v>0.97845272162031438</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>43172</v>
       </c>
@@ -3878,7 +3847,7 @@
         <v>0.49067545421188852</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>43173</v>
       </c>
@@ -3886,7 +3855,7 @@
         <v>0.39016458662446452</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>43174</v>
       </c>
@@ -3894,7 +3863,7 @@
         <v>0.70219667271583486</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>43175</v>
       </c>
@@ -3902,7 +3871,7 @@
         <v>0.64823159375699579</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>43176</v>
       </c>
@@ -3910,7 +3879,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>43177</v>
       </c>
@@ -3918,7 +3887,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>43178</v>
       </c>
@@ -3926,7 +3895,7 @@
         <v>0.94708318443332395</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>43179</v>
       </c>
@@ -3934,7 +3903,7 @@
         <v>0.61743278156658021</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>43180</v>
       </c>
@@ -3942,7 +3911,7 @@
         <v>0.29778216205069141</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>43181</v>
       </c>
@@ -3950,7 +3919,7 @@
         <v>0.46197361080567451</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>43182</v>
       </c>
@@ -3958,7 +3927,7 @@
         <v>0.84675522493099253</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>43183</v>
       </c>
@@ -3966,7 +3935,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>43184</v>
       </c>
@@ -3974,7 +3943,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>43185</v>
       </c>
@@ -3982,7 +3951,7 @@
         <v>1.353629087599121</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>43186</v>
       </c>
@@ -3990,7 +3959,7 @@
         <v>1.9666469355241101</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>43187</v>
       </c>
@@ -3998,7 +3967,7 @@
         <v>0.95828377833232758</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>43188</v>
       </c>
@@ -4006,7 +3975,7 @@
         <v>2.0879419709565208</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>43189</v>
       </c>
@@ -4014,7 +3983,7 @@
         <v>0.93324751599032341</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>43190</v>
       </c>
@@ -4022,7 +3991,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>43191</v>
       </c>
@@ -4030,7 +3999,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>43192</v>
       </c>
@@ -4038,7 +4007,7 @@
         <v>0.57454652734458567</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>43193</v>
       </c>
@@ -4046,7 +4015,7 @@
         <v>0.46291248699675058</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>43194</v>
       </c>
@@ -4054,7 +4023,7 @@
         <v>0.46184648338826118</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>43195</v>
       </c>
@@ -4062,7 +4031,7 @@
         <v>0.98926845027134624</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>43196</v>
       </c>
@@ -4070,7 +4039,7 @@
         <v>1.171642820973424</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>43197</v>
       </c>
@@ -4078,7 +4047,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>43198</v>
       </c>
@@ -4086,7 +4055,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>43199</v>
       </c>
@@ -4094,7 +4063,7 @@
         <v>0.58751359845647555</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>43200</v>
       </c>
@@ -4102,7 +4071,7 @@
         <v>1.0308706561980701</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>43201</v>
       </c>
@@ -4110,7 +4079,7 @@
         <v>0.39529873952787681</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>43202</v>
       </c>
@@ -4118,7 +4087,7 @@
         <v>0.76700267703815095</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>43203</v>
       </c>
@@ -4126,7 +4095,7 @@
         <v>0.73726161601780715</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>43204</v>
       </c>
@@ -4134,7 +4103,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>43205</v>
       </c>
@@ -4142,7 +4111,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>43206</v>
       </c>
@@ -4150,7 +4119,7 @@
         <v>0.89153535563329311</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>43207</v>
       </c>
@@ -4158,7 +4127,7 @@
         <v>0.28965066161923808</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>43208</v>
       </c>
@@ -4166,7 +4135,7 @@
         <v>3.015576302306051E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>43209</v>
       </c>
@@ -4174,7 +4143,7 @@
         <v>0.7519445001997308</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>43210</v>
       </c>
@@ -4182,7 +4151,7 @@
         <v>0.43675014309677118</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>43211</v>
       </c>
@@ -4190,7 +4159,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>43212</v>
       </c>
@@ -4198,7 +4167,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>43213</v>
       </c>
@@ -4206,7 +4175,7 @@
         <v>0.45411595021547152</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>43214</v>
       </c>
@@ -4214,7 +4183,7 @@
         <v>0.61703590354933879</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>43215</v>
       </c>
@@ -4222,7 +4191,7 @@
         <v>0.88230431424843947</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>43216</v>
       </c>
@@ -4230,7 +4199,7 @@
         <v>0.70472074368422866</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <v>43217</v>
       </c>
@@ -4238,7 +4207,7 @@
         <v>1.239311330952501</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <v>43218</v>
       </c>
@@ -4246,7 +4215,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>43219</v>
       </c>
@@ -4254,7 +4223,7 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <v>43220</v>
       </c>
@@ -4262,184 +4231,184 @@
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="2"/>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="2"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A481" s="2"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A482" s="2"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A483" s="2"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A484" s="2"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A485" s="2"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A486" s="2"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A487" s="2"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A488" s="2"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A489" s="2"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A490" s="2"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A491" s="2"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A492" s="2"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A493" s="2"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A494" s="2"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A495" s="2"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A496" s="2"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A497" s="2"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A498" s="2"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A499" s="2"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A500" s="2"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A501" s="2"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A502" s="2"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A503" s="2"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A504" s="2"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A505" s="2"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A506" s="2"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A507" s="2"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A508" s="2"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A509" s="2"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A510" s="2"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A511" s="2"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A512" s="2"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A513" s="2"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A514" s="2"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A515" s="2"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A516" s="2"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A517" s="2"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A518" s="2"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A519" s="2"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A520" s="2"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A521" s="2"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A522" s="2"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A523" s="2"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A524" s="2"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A525" s="2"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A526" s="2"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A527" s="2"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A528" s="2"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A529" s="2"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A530" s="2"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A531" s="2"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A532" s="2"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A533" s="2"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A534" s="2"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A535" s="2"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A536" s="2"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A537" s="2"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A538" s="2"/>
     </row>
   </sheetData>

--- a/project_3_train+test.xlsx
+++ b/project_3_train+test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\HSE-study\Временные ряды\Проект 3\StochProcs3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дари-Ханда\Documents\GitHub\StochProcs3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,12 +83,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -400,4016 +398,4018 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B538"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>42744</v>
       </c>
       <c r="B2">
         <v>0.62793812948415129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>42745</v>
       </c>
       <c r="B3">
         <v>0.23804998582212261</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>42746</v>
       </c>
       <c r="B4">
         <v>5.7762548989506467E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>42747</v>
       </c>
       <c r="B5">
         <v>1.1195297035917231</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>42748</v>
       </c>
       <c r="B6">
         <v>7.4450915622134003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>42749</v>
       </c>
       <c r="B7">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>42750</v>
       </c>
       <c r="B8">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>42751</v>
       </c>
       <c r="B9">
         <v>0.25798483466478611</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>42752</v>
       </c>
       <c r="B10">
         <v>-1.206301792292571E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>42753</v>
       </c>
       <c r="B11">
         <v>-0.2176024229012756</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>42754</v>
       </c>
       <c r="B12">
         <v>6.5672088049261237E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>42755</v>
       </c>
       <c r="B13">
         <v>0.17355515691905141</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>42756</v>
       </c>
       <c r="B14">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>42757</v>
       </c>
       <c r="B15">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>42758</v>
       </c>
       <c r="B16">
         <v>0.29918196481705711</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>42759</v>
       </c>
       <c r="B17">
         <v>0.19720398777511061</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>42760</v>
       </c>
       <c r="B18">
         <v>0.25453345844642672</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>42761</v>
       </c>
       <c r="B19">
         <v>0.10693027407125499</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>42762</v>
       </c>
       <c r="B20">
         <v>0.42357026993143793</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>42763</v>
       </c>
       <c r="B21">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>42764</v>
       </c>
       <c r="B22">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>42765</v>
       </c>
       <c r="B23">
         <v>0.57940248729066202</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>42766</v>
       </c>
       <c r="B24">
         <v>0.51649491731393904</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>42767</v>
       </c>
       <c r="B25">
         <v>7.0935910600572069E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>42768</v>
       </c>
       <c r="B26">
         <v>0.11263766324066921</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>42769</v>
       </c>
       <c r="B27">
         <v>0.1203742583311059</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>42770</v>
       </c>
       <c r="B28">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>42771</v>
       </c>
       <c r="B29">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>42772</v>
       </c>
       <c r="B30">
         <v>9.5091011365942019E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>42773</v>
       </c>
       <c r="B31">
         <v>1.058155461197734E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>42774</v>
       </c>
       <c r="B32">
         <v>0.2871383413434922</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>42775</v>
       </c>
       <c r="B33">
         <v>0.87363326325072199</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>42776</v>
       </c>
       <c r="B34">
         <v>0.35287657721986071</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>42777</v>
       </c>
       <c r="B35">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>42778</v>
       </c>
       <c r="B36">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>42779</v>
       </c>
       <c r="B37">
         <v>0.28721320597718658</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>42780</v>
       </c>
       <c r="B38">
         <v>0.11282048800989811</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>42781</v>
       </c>
       <c r="B39">
         <v>0.25422286578077591</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>42782</v>
       </c>
       <c r="B40">
         <v>0.32346115924607122</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>42783</v>
       </c>
       <c r="B41">
         <v>0.14250335740111811</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>42784</v>
       </c>
       <c r="B42">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>42785</v>
       </c>
       <c r="B43">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>42786</v>
       </c>
       <c r="B44">
         <v>0.31215361520155133</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>42787</v>
       </c>
       <c r="B45">
         <v>0.5558896784415096</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>42788</v>
       </c>
       <c r="B46">
         <v>0.77541598722705418</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>42789</v>
       </c>
       <c r="B47">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>42790</v>
       </c>
       <c r="B48">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>42791</v>
       </c>
       <c r="B49">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>42792</v>
       </c>
       <c r="B50">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>42793</v>
       </c>
       <c r="B51">
         <v>1.240299394247123</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>42794</v>
       </c>
       <c r="B52">
         <v>0.872926279428067</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>42795</v>
       </c>
       <c r="B53">
         <v>5.494932875621996E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>42796</v>
       </c>
       <c r="B54">
         <v>0.18234835566941329</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>42797</v>
       </c>
       <c r="B55">
         <v>0.1109609082127035</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>42798</v>
       </c>
       <c r="B56">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>42799</v>
       </c>
       <c r="B57">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>42800</v>
       </c>
       <c r="B58">
         <v>0.13984008025701661</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>42801</v>
       </c>
       <c r="B59">
         <v>5.0733603168767648E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>42802</v>
       </c>
       <c r="B60">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>42803</v>
       </c>
       <c r="B61">
         <v>0.663595759301432</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>42804</v>
       </c>
       <c r="B62">
         <v>0.32196772441722882</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>42805</v>
       </c>
       <c r="B63">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>42806</v>
       </c>
       <c r="B64">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>42807</v>
       </c>
       <c r="B65">
         <v>0.48572331427879839</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>42808</v>
       </c>
       <c r="B66">
         <v>0.83486022984674713</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>42809</v>
       </c>
       <c r="B67">
         <v>0.51224171133297292</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>42810</v>
       </c>
       <c r="B68">
         <v>0.17653891652236189</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>42811</v>
       </c>
       <c r="B69">
         <v>0.27021596273074638</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>42812</v>
       </c>
       <c r="B70">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>42813</v>
       </c>
       <c r="B71">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>42814</v>
       </c>
       <c r="B72">
         <v>0.60570105538846908</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>42815</v>
       </c>
       <c r="B73">
         <v>0.38182173981227419</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>42816</v>
       </c>
       <c r="B74">
         <v>0.29450944274143409</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>42817</v>
       </c>
       <c r="B75">
         <v>0.30084001215685152</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>42818</v>
       </c>
       <c r="B76">
         <v>0.27997094116658289</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>42819</v>
       </c>
       <c r="B77">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>42820</v>
       </c>
       <c r="B78">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>42821</v>
       </c>
       <c r="B79">
         <v>2.8091978277888559</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>42822</v>
       </c>
       <c r="B80">
         <v>0.63725406407535956</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>42823</v>
       </c>
       <c r="B81">
         <v>0.76255260030452443</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>42824</v>
       </c>
       <c r="B82">
         <v>0.77577339359543651</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>42825</v>
       </c>
       <c r="B83">
         <v>0.82954165959431692</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>42826</v>
       </c>
       <c r="B84">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>42827</v>
       </c>
       <c r="B85">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>42828</v>
       </c>
       <c r="B86">
         <v>0.44620026258839512</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>42829</v>
       </c>
       <c r="B87">
         <v>0.36238132706108273</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>42830</v>
       </c>
       <c r="B88">
         <v>0.22308068029835729</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>42831</v>
       </c>
       <c r="B89">
         <v>0.35626018771606882</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>42832</v>
       </c>
       <c r="B90">
         <v>0.1507779850906168</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>42833</v>
       </c>
       <c r="B91">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>42834</v>
       </c>
       <c r="B92">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>42835</v>
       </c>
       <c r="B93">
         <v>0.50914579563573781</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>42836</v>
       </c>
       <c r="B94">
         <v>0.24410621385523551</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>42837</v>
       </c>
       <c r="B95">
         <v>0.1182487149212863</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>42838</v>
       </c>
       <c r="B96">
         <v>0.26198460618904601</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>42839</v>
       </c>
       <c r="B97">
         <v>0.29166643361164929</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>42840</v>
       </c>
       <c r="B98">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>42841</v>
       </c>
       <c r="B99">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>42842</v>
       </c>
       <c r="B100">
         <v>0.18736140985231109</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>42843</v>
       </c>
       <c r="B101">
         <v>-2.826163732619881E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>42844</v>
       </c>
       <c r="B102">
         <v>0.19849809657461531</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>42845</v>
       </c>
       <c r="B103">
         <v>0.38183906423626229</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>42846</v>
       </c>
       <c r="B104">
         <v>9.666972041322908E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>42847</v>
       </c>
       <c r="B105">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>42848</v>
       </c>
       <c r="B106">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>42849</v>
       </c>
       <c r="B107">
         <v>0.31208485875151321</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>42850</v>
       </c>
       <c r="B108">
         <v>0.46187390799458028</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>42851</v>
       </c>
       <c r="B109">
         <v>0.57489697045412214</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>42852</v>
       </c>
       <c r="B110">
         <v>0.86013258093668588</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>42853</v>
       </c>
       <c r="B111">
         <v>0.86167884790986304</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>42854</v>
       </c>
       <c r="B112">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>42855</v>
       </c>
       <c r="B113">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>42856</v>
       </c>
       <c r="B114">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>42857</v>
       </c>
       <c r="B115">
         <v>0.47245657225817261</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>42858</v>
       </c>
       <c r="B116">
         <v>5.2436313271130262E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>42859</v>
       </c>
       <c r="B117">
         <v>0.30478936984216609</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>42860</v>
       </c>
       <c r="B118">
         <v>0.35827784436939158</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <v>42861</v>
       </c>
       <c r="B119">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <v>42862</v>
       </c>
       <c r="B120">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <v>42863</v>
       </c>
       <c r="B121">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>42864</v>
       </c>
       <c r="B122">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>42865</v>
       </c>
       <c r="B123">
         <v>0.40762736081739448</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>42866</v>
       </c>
       <c r="B124">
         <v>0.71445823000074304</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <v>42867</v>
       </c>
       <c r="B125">
         <v>0.3963060669149151</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <v>42868</v>
       </c>
       <c r="B126">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <v>42869</v>
       </c>
       <c r="B127">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>42870</v>
       </c>
       <c r="B128">
         <v>0.52502728141559596</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <v>42871</v>
       </c>
       <c r="B129">
         <v>0.41119146841201631</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <v>42872</v>
       </c>
       <c r="B130">
         <v>0.27986453420991902</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>42873</v>
       </c>
       <c r="B131">
         <v>0.58378396501658303</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <v>42874</v>
       </c>
       <c r="B132">
         <v>0.21567315995996661</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <v>42875</v>
       </c>
       <c r="B133">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <v>42876</v>
       </c>
       <c r="B134">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>42877</v>
       </c>
       <c r="B135">
         <v>0.6068125797407149</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>42878</v>
       </c>
       <c r="B136">
         <v>0.29539784711486572</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <v>42879</v>
       </c>
       <c r="B137">
         <v>0.30617004204006748</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <v>42880</v>
       </c>
       <c r="B138">
         <v>0.72008758306596832</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <v>42881</v>
       </c>
       <c r="B139">
         <v>1.311120676142151</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <v>42882</v>
       </c>
       <c r="B140">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <v>42883</v>
       </c>
       <c r="B141">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <v>42884</v>
       </c>
       <c r="B142">
         <v>0.60695688917290558</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <v>42885</v>
       </c>
       <c r="B143">
         <v>0.35601197262196621</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <v>42886</v>
       </c>
       <c r="B144">
         <v>0.76249842709759397</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <v>42887</v>
       </c>
       <c r="B145">
         <v>0.1793964092832831</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <v>42888</v>
       </c>
       <c r="B146">
         <v>6.4264380302817142E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <v>42889</v>
       </c>
       <c r="B147">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <v>42890</v>
       </c>
       <c r="B148">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <v>42891</v>
       </c>
       <c r="B149">
         <v>0.44210753134667219</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <v>42892</v>
       </c>
       <c r="B150">
         <v>0.72999609678684241</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <v>42893</v>
       </c>
       <c r="B151">
         <v>4.7598450686673011E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <v>42894</v>
       </c>
       <c r="B152">
         <v>0.26108625054285373</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <v>42895</v>
       </c>
       <c r="B153">
         <v>0.4060225835494965</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <v>42896</v>
       </c>
       <c r="B154">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <v>42897</v>
       </c>
       <c r="B155">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <v>42898</v>
       </c>
       <c r="B156">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <v>42899</v>
       </c>
       <c r="B157">
         <v>0.96864635950921696</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <v>42900</v>
       </c>
       <c r="B158">
         <v>0.78814136487108344</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <v>42901</v>
       </c>
       <c r="B159">
         <v>0.90505153102291613</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <v>42902</v>
       </c>
       <c r="B160">
         <v>0.25462314823736149</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <v>42903</v>
       </c>
       <c r="B161">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <v>42904</v>
       </c>
       <c r="B162">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <v>42905</v>
       </c>
       <c r="B163">
         <v>0.38234481581932023</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <v>42906</v>
       </c>
       <c r="B164">
         <v>0.39641567504702641</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <v>42907</v>
       </c>
       <c r="B165">
         <v>9.6135053651530938E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <v>42908</v>
       </c>
       <c r="B166">
         <v>0.24245138859488469</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <v>42909</v>
       </c>
       <c r="B167">
         <v>0.50208239367569574</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <v>42910</v>
       </c>
       <c r="B168">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <v>42911</v>
       </c>
       <c r="B169">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <v>42912</v>
       </c>
       <c r="B170">
         <v>0.59282225298540148</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
         <v>42913</v>
       </c>
       <c r="B171">
         <v>0.82499508820693279</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <v>42914</v>
       </c>
       <c r="B172">
         <v>1.141382133757719</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
         <v>42915</v>
       </c>
       <c r="B173">
         <v>0.75842844832476031</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <v>42916</v>
       </c>
       <c r="B174">
         <v>1.0177016903764571</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
         <v>42917</v>
       </c>
       <c r="B175">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <v>42918</v>
       </c>
       <c r="B176">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <v>42919</v>
       </c>
       <c r="B177">
         <v>0.49193892330484362</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
         <v>42920</v>
       </c>
       <c r="B178">
         <v>0.79425006129790543</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <v>42921</v>
       </c>
       <c r="B179">
         <v>0.24789791547534831</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <v>42922</v>
       </c>
       <c r="B180">
         <v>0.34112727531829828</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <v>42923</v>
       </c>
       <c r="B181">
         <v>0.18386697331268101</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <v>42924</v>
       </c>
       <c r="B182">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <v>42925</v>
       </c>
       <c r="B183">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <v>42926</v>
       </c>
       <c r="B184">
         <v>0.80781721762376757</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <v>42927</v>
       </c>
       <c r="B185">
         <v>0.52833124045582525</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <v>42928</v>
       </c>
       <c r="B186">
         <v>0.27320009384344268</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <v>42929</v>
       </c>
       <c r="B187">
         <v>0.50958944680631046</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <v>42930</v>
       </c>
       <c r="B188">
         <v>0.1960809997096897</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <v>42931</v>
       </c>
       <c r="B189">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <v>42932</v>
       </c>
       <c r="B190">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <v>42933</v>
       </c>
       <c r="B191">
         <v>0.50065151792668983</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <v>42934</v>
       </c>
       <c r="B192">
         <v>0.1238846061506776</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <v>42935</v>
       </c>
       <c r="B193">
         <v>0.43946947385466251</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <v>42936</v>
       </c>
       <c r="B194">
         <v>1.7310182763888029</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <v>42937</v>
       </c>
       <c r="B195">
         <v>0.58874494029537605</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <v>42938</v>
       </c>
       <c r="B196">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <v>42939</v>
       </c>
       <c r="B197">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <v>42940</v>
       </c>
       <c r="B198">
         <v>0.71144956923487968</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <v>42941</v>
       </c>
       <c r="B199">
         <v>0.75255762448018815</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <v>42942</v>
       </c>
       <c r="B200">
         <v>9.6742295682150037E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
         <v>42943</v>
       </c>
       <c r="B201">
         <v>0.62083617460197249</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <v>42944</v>
       </c>
       <c r="B202">
         <v>0.28183358352528443</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <v>42945</v>
       </c>
       <c r="B203">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <v>42946</v>
       </c>
       <c r="B204">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <v>42947</v>
       </c>
       <c r="B205">
         <v>0.93520578995588277</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <v>42948</v>
       </c>
       <c r="B206">
         <v>0.27437967371537703</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <v>42949</v>
       </c>
       <c r="B207">
         <v>0.60007843319665777</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <v>42950</v>
       </c>
       <c r="B208">
         <v>0.48758385040578323</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <v>42951</v>
       </c>
       <c r="B209">
         <v>0.4045744425826342</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
         <v>42952</v>
       </c>
       <c r="B210">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
         <v>42953</v>
       </c>
       <c r="B211">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
         <v>42954</v>
       </c>
       <c r="B212">
         <v>0.73567934096344501</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
         <v>42955</v>
       </c>
       <c r="B213">
         <v>0.33515863990782152</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
         <v>42956</v>
       </c>
       <c r="B214">
         <v>0.21677074952670489</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
         <v>42957</v>
       </c>
       <c r="B215">
         <v>0.41332296699059229</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
         <v>42958</v>
       </c>
       <c r="B216">
         <v>0.43194634527221498</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
         <v>42959</v>
       </c>
       <c r="B217">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
         <v>42960</v>
       </c>
       <c r="B218">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
         <v>42961</v>
       </c>
       <c r="B219">
         <v>0.52098139746915717</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
         <v>42962</v>
       </c>
       <c r="B220">
         <v>0.55167006078181047</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
         <v>42963</v>
       </c>
       <c r="B221">
         <v>0.15933976929613819</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
         <v>42964</v>
       </c>
       <c r="B222">
         <v>0.32001883314928692</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
         <v>42965</v>
       </c>
       <c r="B223">
         <v>0.2105775521790241</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
         <v>42966</v>
       </c>
       <c r="B224">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
         <v>42967</v>
       </c>
       <c r="B225">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
         <v>42968</v>
       </c>
       <c r="B226">
         <v>0.54748640650115932</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
         <v>42969</v>
       </c>
       <c r="B227">
         <v>0.1497505542043171</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
         <v>42970</v>
       </c>
       <c r="B228">
         <v>0.1548067990569045</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
         <v>42971</v>
       </c>
       <c r="B229">
         <v>0.41468940988497022</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
         <v>42972</v>
       </c>
       <c r="B230">
         <v>0.23794262841246891</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
         <v>42973</v>
       </c>
       <c r="B231">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
         <v>42974</v>
       </c>
       <c r="B232">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <v>42975</v>
       </c>
       <c r="B233">
         <v>0.66428038285180457</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
         <v>42976</v>
       </c>
       <c r="B234">
         <v>0.185162486036063</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
         <v>42977</v>
       </c>
       <c r="B235">
         <v>0.32854857770813339</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
         <v>42978</v>
       </c>
       <c r="B236">
         <v>0.6905186432286009</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
         <v>42979</v>
       </c>
       <c r="B237">
         <v>5.6528572247218911E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
         <v>42980</v>
       </c>
       <c r="B238">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
         <v>42981</v>
       </c>
       <c r="B239">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
         <v>42982</v>
       </c>
       <c r="B240">
         <v>0.1059138404416255</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
         <v>42983</v>
       </c>
       <c r="B241">
         <v>0.62430636417237506</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
         <v>42984</v>
       </c>
       <c r="B242">
         <v>0.2454109872621546</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
         <v>42985</v>
       </c>
       <c r="B243">
         <v>0.5923080571754924</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
         <v>42986</v>
       </c>
       <c r="B244">
         <v>0.42738559414251431</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
         <v>42987</v>
       </c>
       <c r="B245">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
         <v>42988</v>
       </c>
       <c r="B246">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <v>42989</v>
       </c>
       <c r="B247">
         <v>0.87474839047638653</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
         <v>42990</v>
       </c>
       <c r="B248">
         <v>0.33349327159956049</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" s="2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
         <v>42991</v>
       </c>
       <c r="B249">
         <v>0.21724828515758859</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
         <v>42992</v>
       </c>
       <c r="B250">
         <v>0.65124317903969797</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" s="2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
         <v>42993</v>
       </c>
       <c r="B251">
         <v>0.49202488682467149</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" s="2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
         <v>42994</v>
       </c>
       <c r="B252">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" s="2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
         <v>42995</v>
       </c>
       <c r="B253">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" s="2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
         <v>42996</v>
       </c>
       <c r="B254">
         <v>0.40465429963904492</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" s="2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
         <v>42997</v>
       </c>
       <c r="B255">
         <v>0.45183958894005372</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" s="2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
         <v>42998</v>
       </c>
       <c r="B256">
         <v>0.39268166602298959</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
         <v>42999</v>
       </c>
       <c r="B257">
         <v>1.0710703598031719</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
         <v>43000</v>
       </c>
       <c r="B258">
         <v>0.54206077750466641</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
         <v>43001</v>
       </c>
       <c r="B259">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
         <v>43002</v>
       </c>
       <c r="B260">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
         <v>43003</v>
       </c>
       <c r="B261">
         <v>1.3593231282409479</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
         <v>43004</v>
       </c>
       <c r="B262">
         <v>0.59234188072606353</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
         <v>43005</v>
       </c>
       <c r="B263">
         <v>0.47122573775626481</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
         <v>43006</v>
       </c>
       <c r="B264">
         <v>1.5691963666710069</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
         <v>43007</v>
       </c>
       <c r="B265">
         <v>1.203104320974409</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
         <v>43008</v>
       </c>
       <c r="B266">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" s="2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
         <v>43009</v>
       </c>
       <c r="B267">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
         <v>43010</v>
       </c>
       <c r="B268">
         <v>0.43148928813690879</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
         <v>43011</v>
       </c>
       <c r="B269">
         <v>0.22273987085710831</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" s="2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
         <v>43012</v>
       </c>
       <c r="B270">
         <v>0.57652170628112775</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
         <v>43013</v>
       </c>
       <c r="B271">
         <v>0.80024413596004951</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" s="2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
         <v>43014</v>
       </c>
       <c r="B272">
         <v>0.19298917660431991</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" s="2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
         <v>43015</v>
       </c>
       <c r="B273">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" s="2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
         <v>43016</v>
       </c>
       <c r="B274">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" s="2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
         <v>43017</v>
       </c>
       <c r="B275">
         <v>0.47993148342543351</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" s="2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
         <v>43018</v>
       </c>
       <c r="B276">
         <v>0.94124543238478053</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" s="2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
         <v>43019</v>
       </c>
       <c r="B277">
         <v>0.38077533239453609</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" s="2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
         <v>43020</v>
       </c>
       <c r="B278">
         <v>0.86021206617403412</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" s="2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
         <v>43021</v>
       </c>
       <c r="B279">
         <v>0.53033553939828493</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" s="2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
         <v>43022</v>
       </c>
       <c r="B280">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" s="2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
         <v>43023</v>
       </c>
       <c r="B281">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" s="2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
         <v>43024</v>
       </c>
       <c r="B282">
         <v>0.83576211892328323</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" s="2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
         <v>43025</v>
       </c>
       <c r="B283">
         <v>0.47590842173944248</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" s="2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
         <v>43026</v>
       </c>
       <c r="B284">
         <v>0.29914443585598111</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" s="2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
         <v>43027</v>
       </c>
       <c r="B285">
         <v>0.74153897550924508</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" s="2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
         <v>43028</v>
       </c>
       <c r="B286">
         <v>0.47898525326229829</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" s="2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
         <v>43029</v>
       </c>
       <c r="B287">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" s="2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
         <v>43030</v>
       </c>
       <c r="B288">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" s="2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
         <v>43031</v>
       </c>
       <c r="B289">
         <v>0.8306069242010502</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" s="2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
         <v>43032</v>
       </c>
       <c r="B290">
         <v>0.57459437306572769</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" s="2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
         <v>43033</v>
       </c>
       <c r="B291">
         <v>1.2214359389250811</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" s="2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
         <v>43034</v>
       </c>
       <c r="B292">
         <v>0.51529040209621801</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
         <v>43035</v>
       </c>
       <c r="B293">
         <v>0.6873277088032238</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
         <v>43036</v>
       </c>
       <c r="B294">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" s="2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
         <v>43037</v>
       </c>
       <c r="B295">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" s="2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
         <v>43038</v>
       </c>
       <c r="B296">
         <v>0.88439824393971722</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" s="2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
         <v>43039</v>
       </c>
       <c r="B297">
         <v>1.6402653405653389</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" s="2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
         <v>43040</v>
       </c>
       <c r="B298">
         <v>0.39718569139403009</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" s="2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
         <v>43041</v>
       </c>
       <c r="B299">
         <v>0.81235511367695679</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" s="2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
         <v>43042</v>
       </c>
       <c r="B300">
         <v>0.38568353323797022</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" s="2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
         <v>43043</v>
       </c>
       <c r="B301">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A302" s="2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
         <v>43044</v>
       </c>
       <c r="B302">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A303" s="2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
         <v>43045</v>
       </c>
       <c r="B303">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" s="2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
         <v>43046</v>
       </c>
       <c r="B304">
         <v>0.80618148561956637</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" s="2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
         <v>43047</v>
       </c>
       <c r="B305">
         <v>0.43221733017160208</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" s="2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
         <v>43048</v>
       </c>
       <c r="B306">
         <v>0.5840295128255456</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
         <v>43049</v>
       </c>
       <c r="B307">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
         <v>43050</v>
       </c>
       <c r="B308">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" s="2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
         <v>43051</v>
       </c>
       <c r="B309">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" s="2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
         <v>43052</v>
       </c>
       <c r="B310">
         <v>0.68552875871497976</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" s="2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
         <v>43053</v>
       </c>
       <c r="B311">
         <v>0.75995278062728788</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" s="2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
         <v>43054</v>
       </c>
       <c r="B312">
         <v>0.6306568775173137</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" s="2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
         <v>43055</v>
       </c>
       <c r="B313">
         <v>0.37731810877232103</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" s="2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
         <v>43056</v>
       </c>
       <c r="B314">
         <v>0.41798963467702899</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" s="2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
         <v>43057</v>
       </c>
       <c r="B315">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
         <v>43058</v>
       </c>
       <c r="B316">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
         <v>43059</v>
       </c>
       <c r="B317">
         <v>0.59156964833111492</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" s="2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
         <v>43060</v>
       </c>
       <c r="B318">
         <v>0.39676334833892579</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" s="2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
         <v>43061</v>
       </c>
       <c r="B319">
         <v>0.30120880486338453</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" s="2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
         <v>43062</v>
       </c>
       <c r="B320">
         <v>0.48893509663754908</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321" s="2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
         <v>43063</v>
       </c>
       <c r="B321">
         <v>0.50790106312596583</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" s="2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
         <v>43064</v>
       </c>
       <c r="B322">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323" s="2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
         <v>43065</v>
       </c>
       <c r="B323">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324" s="2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
         <v>43066</v>
       </c>
       <c r="B324">
         <v>0.65706246277331903</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325" s="2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
         <v>43067</v>
       </c>
       <c r="B325">
         <v>0.7442627782932637</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A326" s="2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
         <v>43068</v>
       </c>
       <c r="B326">
         <v>1.0378909712709079</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A327" s="2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
         <v>43069</v>
       </c>
       <c r="B327">
         <v>1.1722128752641729</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328" s="2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
         <v>43070</v>
       </c>
       <c r="B328">
         <v>0.42776744351744789</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A329" s="2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
         <v>43071</v>
       </c>
       <c r="B329">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A330" s="2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
         <v>43072</v>
       </c>
       <c r="B330">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331" s="2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
         <v>43073</v>
       </c>
       <c r="B331">
         <v>0.89835568523080378</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A332" s="2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
         <v>43074</v>
       </c>
       <c r="B332">
         <v>0.62463512505978147</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A333" s="2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
         <v>43075</v>
       </c>
       <c r="B333">
         <v>0.71061484645669437</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A334" s="2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
         <v>43076</v>
       </c>
       <c r="B334">
         <v>0.66165578609691988</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A335" s="2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
         <v>43077</v>
       </c>
       <c r="B335">
         <v>0.76022074719762722</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336" s="2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
         <v>43078</v>
       </c>
       <c r="B336">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A337" s="2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
         <v>43079</v>
       </c>
       <c r="B337">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338" s="2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
         <v>43080</v>
       </c>
       <c r="B338">
         <v>0.90870709118338044</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A339" s="2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
         <v>43081</v>
       </c>
       <c r="B339">
         <v>0.90142691746608872</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340" s="2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
         <v>43082</v>
       </c>
       <c r="B340">
         <v>0.42785461851379442</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A341" s="2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
         <v>43083</v>
       </c>
       <c r="B341">
         <v>0.82450988580639983</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A342" s="2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
         <v>43084</v>
       </c>
       <c r="B342">
         <v>2.075077107942259</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A343" s="2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
         <v>43085</v>
       </c>
       <c r="B343">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A344" s="2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
         <v>43086</v>
       </c>
       <c r="B344">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A345" s="2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
         <v>43087</v>
       </c>
       <c r="B345">
         <v>1.068075866269419</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A346" s="2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
         <v>43088</v>
       </c>
       <c r="B346">
         <v>1.411730445111945</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A347" s="2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
         <v>43089</v>
       </c>
       <c r="B347">
         <v>2.0480509938677991</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A348" s="2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
         <v>43090</v>
       </c>
       <c r="B348">
         <v>1.576127979601418</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A349" s="2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
         <v>43091</v>
       </c>
       <c r="B349">
         <v>1.0506339377624061</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A350" s="2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
         <v>43092</v>
       </c>
       <c r="B350">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A351" s="2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
         <v>43093</v>
       </c>
       <c r="B351">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A352" s="2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
         <v>43094</v>
       </c>
       <c r="B352">
         <v>2.7901131016765008</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A353" s="2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
         <v>43095</v>
       </c>
       <c r="B353">
         <v>2.137711716216439</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A354" s="2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
         <v>43096</v>
       </c>
       <c r="B354">
         <v>2.625103795227282</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A355" s="2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
         <v>43097</v>
       </c>
       <c r="B355">
         <v>3.4307737994122891</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A356" s="2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
         <v>43098</v>
       </c>
       <c r="B356">
         <v>1.6047013823750851</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A357" s="2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
         <v>43099</v>
       </c>
       <c r="B357">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A358" s="2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
         <v>43100</v>
       </c>
       <c r="B358">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A359" s="2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
         <v>43101</v>
       </c>
       <c r="B359">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A360" s="2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
         <v>43102</v>
       </c>
       <c r="B360">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A361" s="2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
         <v>43103</v>
       </c>
       <c r="B361">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A362" s="2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
         <v>43104</v>
       </c>
       <c r="B362">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A363" s="2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
         <v>43105</v>
       </c>
       <c r="B363">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A364" s="2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
         <v>43106</v>
       </c>
       <c r="B364">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A365" s="2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
         <v>43107</v>
       </c>
       <c r="B365">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A366" s="2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
         <v>43108</v>
       </c>
       <c r="B366">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A367" s="2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
         <v>43109</v>
       </c>
       <c r="B367">
         <v>1.0722101517149629</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A368" s="2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
         <v>43110</v>
       </c>
       <c r="B368">
         <v>0.65238954597951182</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A369" s="2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
         <v>43111</v>
       </c>
       <c r="B369">
         <v>0.98526209143308741</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A370" s="2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
         <v>43112</v>
       </c>
       <c r="B370">
         <v>1.1648529624573321</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A371" s="2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
         <v>43113</v>
       </c>
       <c r="B371">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A372" s="2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
         <v>43114</v>
       </c>
       <c r="B372">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A373" s="2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
         <v>43115</v>
       </c>
       <c r="B373">
         <v>0.65689232165772815</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A374" s="2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
         <v>43116</v>
       </c>
       <c r="B374">
         <v>0.1696492809780972</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A375" s="2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
         <v>43117</v>
       </c>
       <c r="B375">
         <v>0.21752241832975891</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A376" s="2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
         <v>43118</v>
       </c>
       <c r="B376">
         <v>8.2342322601025628E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A377" s="2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
         <v>43119</v>
       </c>
       <c r="B377">
         <v>0.47380369494045538</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A378" s="2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
         <v>43120</v>
       </c>
       <c r="B378">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A379" s="2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
         <v>43121</v>
       </c>
       <c r="B379">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A380" s="2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
         <v>43122</v>
       </c>
       <c r="B380">
         <v>0.7233417971312609</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A381" s="2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
         <v>43123</v>
       </c>
       <c r="B381">
         <v>0.37974696024693311</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A382" s="2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
         <v>43124</v>
       </c>
       <c r="B382">
         <v>0.2955293877632662</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A383" s="2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
         <v>43125</v>
       </c>
       <c r="B383">
         <v>1.357131244602847</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A384" s="2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
         <v>43126</v>
       </c>
       <c r="B384">
         <v>0.44745438163578483</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A385" s="2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
         <v>43127</v>
       </c>
       <c r="B385">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A386" s="2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
         <v>43128</v>
       </c>
       <c r="B386">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A387" s="2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
         <v>43129</v>
       </c>
       <c r="B387">
         <v>0.62656062300152227</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A388" s="2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
         <v>43130</v>
       </c>
       <c r="B388">
         <v>0.58601504931413451</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A389" s="2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
         <v>43131</v>
       </c>
       <c r="B389">
         <v>0.82232379292621494</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A390" s="2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
         <v>43132</v>
       </c>
       <c r="B390">
         <v>0.3218703609714807</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A391" s="2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
         <v>43133</v>
       </c>
       <c r="B391">
         <v>0.30428599993079708</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A392" s="2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
         <v>43134</v>
       </c>
       <c r="B392">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A393" s="2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
         <v>43135</v>
       </c>
       <c r="B393">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A394" s="2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
         <v>43136</v>
       </c>
       <c r="B394">
         <v>0.29678143495218412</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A395" s="2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
         <v>43137</v>
       </c>
       <c r="B395">
         <v>0.66798839496630813</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A396" s="2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
         <v>43138</v>
       </c>
       <c r="B396">
         <v>0.46648190601994849</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A397" s="2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
         <v>43139</v>
       </c>
       <c r="B397">
         <v>0.49132513121844179</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A398" s="2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
         <v>43140</v>
       </c>
       <c r="B398">
         <v>1.230775505101473</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A399" s="2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
         <v>43141</v>
       </c>
       <c r="B399">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A400" s="2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
         <v>43142</v>
       </c>
       <c r="B400">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A401" s="2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
         <v>43143</v>
       </c>
       <c r="B401">
         <v>0.74686167272850801</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A402" s="2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
         <v>43144</v>
       </c>
       <c r="B402">
         <v>0.95391641980390596</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A403" s="2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
         <v>43145</v>
       </c>
       <c r="B403">
         <v>0.30642610167284662</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A404" s="2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
         <v>43146</v>
       </c>
       <c r="B404">
         <v>0.64108671388700744</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A405" s="2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
         <v>43147</v>
       </c>
       <c r="B405">
         <v>0.4609788780480239</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A406" s="2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
         <v>43148</v>
       </c>
       <c r="B406">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A407" s="2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
         <v>43149</v>
       </c>
       <c r="B407">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A408" s="2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
         <v>43150</v>
       </c>
       <c r="B408">
         <v>0.40504748603751778</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A409" s="2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
         <v>43151</v>
       </c>
       <c r="B409">
         <v>0.62945660724705033</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A410" s="2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
         <v>43152</v>
       </c>
       <c r="B410">
         <v>0.59324534804011508</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A411" s="2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
         <v>43153</v>
       </c>
       <c r="B411">
         <v>0.7102344489356851</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A412" s="2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
         <v>43154</v>
       </c>
       <c r="B412">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A413" s="2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
         <v>43155</v>
       </c>
       <c r="B413">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A414" s="2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
         <v>43156</v>
       </c>
       <c r="B414">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A415" s="2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
         <v>43157</v>
       </c>
       <c r="B415">
         <v>1.456651145119173</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A416" s="2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
         <v>43158</v>
       </c>
       <c r="B416">
         <v>0.6602893098672894</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A417" s="2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
         <v>43159</v>
       </c>
       <c r="B417">
         <v>0.73214631420962561</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A418" s="2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
         <v>43160</v>
       </c>
       <c r="B418">
         <v>0.41697599458996443</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A419" s="2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
         <v>43161</v>
       </c>
       <c r="B419">
         <v>0.3212773205834949</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A420" s="2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
         <v>43162</v>
       </c>
       <c r="B420">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A421" s="2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="3">
         <v>43163</v>
       </c>
       <c r="B421">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A422" s="2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
         <v>43164</v>
       </c>
       <c r="B422">
         <v>0.94448642697159768</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A423" s="2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="3">
         <v>43165</v>
       </c>
       <c r="B423">
         <v>0.78989617971134407</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A424" s="2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
         <v>43166</v>
       </c>
       <c r="B424">
         <v>1.104420658938428</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A425" s="2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="3">
         <v>43167</v>
       </c>
       <c r="B425">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A426" s="2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
         <v>43168</v>
       </c>
       <c r="B426">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A427" s="2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
         <v>43169</v>
       </c>
       <c r="B427">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A428" s="2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
         <v>43170</v>
       </c>
       <c r="B428">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A429" s="2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
         <v>43171</v>
       </c>
       <c r="B429">
         <v>0.97845272162031438</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A430" s="2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
         <v>43172</v>
       </c>
       <c r="B430">
         <v>0.49067545421188852</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A431" s="2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="3">
         <v>43173</v>
       </c>
       <c r="B431">
         <v>0.39016458662446452</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A432" s="2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
         <v>43174</v>
       </c>
       <c r="B432">
         <v>0.70219667271583486</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A433" s="2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="3">
         <v>43175</v>
       </c>
       <c r="B433">
         <v>0.64823159375699579</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A434" s="2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="3">
         <v>43176</v>
       </c>
       <c r="B434">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A435" s="2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="3">
         <v>43177</v>
       </c>
       <c r="B435">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A436" s="2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="3">
         <v>43178</v>
       </c>
       <c r="B436">
         <v>0.94708318443332395</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A437" s="2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="3">
         <v>43179</v>
       </c>
       <c r="B437">
         <v>0.61743278156658021</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A438" s="2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="3">
         <v>43180</v>
       </c>
       <c r="B438">
         <v>0.29778216205069141</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A439" s="2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="3">
         <v>43181</v>
       </c>
       <c r="B439">
         <v>0.46197361080567451</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A440" s="2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="3">
         <v>43182</v>
       </c>
       <c r="B440">
         <v>0.84675522493099253</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A441" s="2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="3">
         <v>43183</v>
       </c>
       <c r="B441">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A442" s="2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="3">
         <v>43184</v>
       </c>
       <c r="B442">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A443" s="2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="3">
         <v>43185</v>
       </c>
       <c r="B443">
         <v>1.353629087599121</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A444" s="2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="3">
         <v>43186</v>
       </c>
       <c r="B444">
         <v>1.9666469355241101</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A445" s="2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="3">
         <v>43187</v>
       </c>
       <c r="B445">
         <v>0.95828377833232758</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A446" s="2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="3">
         <v>43188</v>
       </c>
       <c r="B446">
         <v>2.0879419709565208</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A447" s="2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="3">
         <v>43189</v>
       </c>
       <c r="B447">
         <v>0.93324751599032341</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A448" s="2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="3">
         <v>43190</v>
       </c>
       <c r="B448">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A449" s="2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="3">
         <v>43191</v>
       </c>
       <c r="B449">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A450" s="2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="3">
         <v>43192</v>
       </c>
       <c r="B450">
         <v>0.57454652734458567</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A451" s="2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="3">
         <v>43193</v>
       </c>
       <c r="B451">
         <v>0.46291248699675058</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A452" s="2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="3">
         <v>43194</v>
       </c>
       <c r="B452">
         <v>0.46184648338826118</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A453" s="2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="3">
         <v>43195</v>
       </c>
       <c r="B453">
         <v>0.98926845027134624</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A454" s="2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
         <v>43196</v>
       </c>
       <c r="B454">
         <v>1.171642820973424</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A455" s="2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="3">
         <v>43197</v>
       </c>
       <c r="B455">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A456" s="2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
         <v>43198</v>
       </c>
       <c r="B456">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A457" s="2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="3">
         <v>43199</v>
       </c>
       <c r="B457">
         <v>0.58751359845647555</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A458" s="2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="3">
         <v>43200</v>
       </c>
       <c r="B458">
         <v>1.0308706561980701</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A459" s="2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="3">
         <v>43201</v>
       </c>
       <c r="B459">
         <v>0.39529873952787681</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A460" s="2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
         <v>43202</v>
       </c>
       <c r="B460">
         <v>0.76700267703815095</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A461" s="2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="3">
         <v>43203</v>
       </c>
       <c r="B461">
         <v>0.73726161601780715</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A462" s="2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
         <v>43204</v>
       </c>
       <c r="B462">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A463" s="2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="3">
         <v>43205</v>
       </c>
       <c r="B463">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A464" s="2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="3">
         <v>43206</v>
       </c>
       <c r="B464">
         <v>0.89153535563329311</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A465" s="2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="3">
         <v>43207</v>
       </c>
       <c r="B465">
         <v>0.28965066161923808</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A466" s="2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="3">
         <v>43208</v>
       </c>
       <c r="B466">
         <v>3.015576302306051E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A467" s="2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="3">
         <v>43209</v>
       </c>
       <c r="B467">
         <v>0.7519445001997308</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A468" s="2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="3">
         <v>43210</v>
       </c>
       <c r="B468">
         <v>0.43675014309677118</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A469" s="2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="3">
         <v>43211</v>
       </c>
       <c r="B469">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A470" s="2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="3">
         <v>43212</v>
       </c>
       <c r="B470">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A471" s="2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="3">
         <v>43213</v>
       </c>
       <c r="B471">
         <v>0.45411595021547152</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A472" s="2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="3">
         <v>43214</v>
       </c>
       <c r="B472">
         <v>0.61703590354933879</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A473" s="2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="3">
         <v>43215</v>
       </c>
       <c r="B473">
         <v>0.88230431424843947</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A474" s="2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="3">
         <v>43216</v>
       </c>
       <c r="B474">
         <v>0.70472074368422866</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A475" s="2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="3">
         <v>43217</v>
       </c>
       <c r="B475">
         <v>1.239311330952501</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A476" s="2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="3">
         <v>43218</v>
       </c>
       <c r="B476">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A477" s="2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="3">
         <v>43219</v>
       </c>
       <c r="B477">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A478" s="2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="3">
         <v>43220</v>
       </c>
       <c r="B478">
         <v>-1.3133684758122099</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A479" s="2"/>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A480" s="2"/>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A481" s="2"/>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A482" s="2"/>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A483" s="2"/>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A484" s="2"/>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A485" s="2"/>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A486" s="2"/>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A487" s="2"/>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A488" s="2"/>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A489" s="2"/>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A490" s="2"/>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A491" s="2"/>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A492" s="2"/>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A493" s="2"/>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A494" s="2"/>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A495" s="2"/>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A496" s="2"/>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A497" s="2"/>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A498" s="2"/>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A499" s="2"/>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A500" s="2"/>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A501" s="2"/>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A502" s="2"/>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A503" s="2"/>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A504" s="2"/>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A505" s="2"/>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A506" s="2"/>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A507" s="2"/>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A508" s="2"/>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A509" s="2"/>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A510" s="2"/>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A511" s="2"/>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A512" s="2"/>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A513" s="2"/>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A514" s="2"/>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A515" s="2"/>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A516" s="2"/>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A517" s="2"/>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A518" s="2"/>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A519" s="2"/>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A520" s="2"/>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A521" s="2"/>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A522" s="2"/>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A523" s="2"/>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A524" s="2"/>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A525" s="2"/>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A526" s="2"/>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A527" s="2"/>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A528" s="2"/>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A529" s="2"/>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A530" s="2"/>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A531" s="2"/>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A532" s="2"/>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A533" s="2"/>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A534" s="2"/>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A535" s="2"/>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A536" s="2"/>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A537" s="2"/>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A538" s="2"/>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="3"/>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="3"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="3"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="3"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="3"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="3"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="3"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="3"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="3"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="3"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="3"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="3"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="3"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="3"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="3"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="3"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="3"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="3"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="3"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="3"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="3"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="3"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3"/>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="3"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="3"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="3"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="3"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="3"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="3"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="3"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="3"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="3"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="3"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="3"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="3"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="3"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="3"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="3"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="3"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="3"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="3"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="3"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="3"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="3"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="3"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="3"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
